--- a/library/library_H.BROWN_10.30.20.xlsx
+++ b/library/library_H.BROWN_10.30.20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE430ED6-52D2-E44E-8BDD-5979B8FE120A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F353831-A7D4-AD4F-974D-34537238CA4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3700" yWindow="2540" windowWidth="23820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -687,12 +687,20 @@
   <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="10.6640625" customWidth="1"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="12" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
